--- a/Excels/TZ.xlsx
+++ b/Excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="591">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1340,9 +1340,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>Amount (Ksh)</t>
-  </si>
-  <si>
     <t>To/From</t>
   </si>
   <si>
@@ -1371,9 +1368,6 @@
   </si>
   <si>
     <t>Recharge History</t>
-  </si>
-  <si>
-    <t>Charges (Ksh)</t>
   </si>
   <si>
     <t>Bundle Name</t>
@@ -1401,9 +1395,6 @@
     <t>Validity</t>
   </si>
   <si>
-    <t>Bundle Price (Ksh)</t>
-  </si>
-  <si>
     <t>SMS History</t>
   </si>
   <si>
@@ -1696,6 +1687,132 @@
   </si>
   <si>
     <t>Total Committed SLA</t>
+  </si>
+  <si>
+    <t>Loan Services</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Credited On</t>
+  </si>
+  <si>
+    <t>Current Outstanding</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Loan Details</t>
+  </si>
+  <si>
+    <t>Total Loan Eligibility</t>
+  </si>
+  <si>
+    <t>Number of Loan Taken</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Total Loan Paid</t>
+  </si>
+  <si>
+    <t>Total Current Outstanding</t>
+  </si>
+  <si>
+    <t>Loan History</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Amount Credited</t>
+  </si>
+  <si>
+    <t>Service Charge</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Loan Channel</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Loan Recoveries</t>
+  </si>
+  <si>
+    <t>Amount Recovered</t>
+  </si>
+  <si>
+    <t>Recovery Method</t>
+  </si>
+  <si>
+    <t>Date Recovered</t>
+  </si>
+  <si>
+    <t>More Recharge History</t>
+  </si>
+  <si>
+    <t>BenefitsVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Old Expiry Date</t>
+  </si>
+  <si>
+    <t>Detailed Usage History</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>Remaining Balance</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Search Tune Tab</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Renewal Amount</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Row9</t>
+  </si>
+  <si>
+    <t>Row10</t>
+  </si>
+  <si>
+    <t>Amount (TZS)</t>
+  </si>
+  <si>
+    <t>Charges (TZS)</t>
+  </si>
+  <si>
+    <t>Bundle Price (TZS)</t>
+  </si>
+  <si>
+    <t>Loan Amount (TZS)</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +2051,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2009,6 +2126,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2028,6 +2149,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2357,16 +2531,16 @@
         <v>23103239</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D2">
         <v>787298782</v>
       </c>
       <c r="O2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2374,10 +2548,10 @@
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D3">
         <v>787298771</v>
@@ -2388,10 +2562,10 @@
         <v>23101480</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D4">
         <v>787298782</v>
@@ -2402,10 +2576,10 @@
         <v>23103239</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D5">
         <v>787298771</v>
@@ -2511,49 +2685,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -2581,19 +2755,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -2629,72 +2803,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>530</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>531</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>532</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>533</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>538</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>539</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -2722,36 +2896,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -2779,42 +2953,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>516</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -2835,7 +3009,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>57</v>
@@ -2856,7 +3030,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -2936,15 +3110,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
@@ -2972,195 +3159,407 @@
       <c r="I1" s="39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="39" t="s">
         <v>436</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>437</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>441</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>442</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>446</v>
-      </c>
       <c r="F4" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="E5" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="G5" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="H5" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="I5" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="B6" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="I5" s="39" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>455</v>
-      </c>
       <c r="E6" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="E9" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="F9" s="39" t="s">
         <v>463</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>465</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>466</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3168,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AL1" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
@@ -3236,19 +3635,19 @@
         <v>32</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Y1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -3260,25 +3659,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>548</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>551</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7553,19 +7952,19 @@
         <v>32</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Y1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -7577,25 +7976,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>548</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>551</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7676,7 +8075,7 @@
         <v>234</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -7760,7 +8159,7 @@
         <v>234</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -7844,7 +8243,7 @@
         <v>234</v>
       </c>
       <c r="AL4" s="39" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -7928,7 +8327,7 @@
         <v>234</v>
       </c>
       <c r="AL5" s="39" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8000,7 +8399,7 @@
         <v>234</v>
       </c>
       <c r="AL6" s="39" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -9533,7 +9932,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>72</v>

--- a/Excels/TZ.xlsx
+++ b/Excels/TZ.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="596">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1813,6 +1813,21 @@
   </si>
   <si>
     <t>Loan Amount (TZS)</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2186,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,6 +3571,29 @@
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/TZ.xlsx
+++ b/Excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -1452,9 +1452,6 @@
     <t>NFTR</t>
   </si>
   <si>
-    <t>Rm9yZ290QDEyMw</t>
-  </si>
-  <si>
     <t>cml5YUAwOTgz</t>
   </si>
   <si>
@@ -1828,6 +1825,9 @@
   </si>
   <si>
     <t>Next Reset Date</t>
+  </si>
+  <si>
+    <t>Tm90ZXBhZEAxMjM</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2186,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2546,7 @@
         <v>23103239</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>466</v>
@@ -2555,7 +2555,7 @@
         <v>787298782</v>
       </c>
       <c r="O2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2563,7 +2563,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>595</v>
       </c>
       <c r="C3" t="s">
         <v>467</v>
@@ -2577,7 +2577,7 @@
         <v>23101480</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
         <v>468</v>
@@ -2591,7 +2591,7 @@
         <v>23103239</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" t="s">
         <v>469</v>
@@ -2700,49 +2700,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>473</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -2770,19 +2770,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2818,72 +2818,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>530</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>536</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>538</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -2911,36 +2911,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -2968,42 +2968,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>515</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>57</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -3127,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -3175,10 +3175,10 @@
         <v>24</v>
       </c>
       <c r="J1" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>585</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>433</v>
@@ -3236,7 +3236,7 @@
         <v>442</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>439</v>
@@ -3282,7 +3282,7 @@
         <v>450</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -3385,22 +3385,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>590</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="E10" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="F10" s="39" t="s">
         <v>552</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>553</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -3410,22 +3410,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
         <v>556</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>558</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>559</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -3435,28 +3435,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="C12" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E12" s="39" t="s">
         <v>563</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>564</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>566</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>567</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3464,19 +3464,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="E13" s="39" t="s">
         <v>570</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>571</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>439</v>
@@ -3499,22 +3499,22 @@
         <v>443</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>436</v>
       </c>
       <c r="G14" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="H14" s="52" t="s">
         <v>574</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>575</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>463</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>450</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>26</v>
@@ -3534,13 +3534,13 @@
         <v>440</v>
       </c>
       <c r="E15" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="G15" s="39" t="s">
         <v>579</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>580</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>443</v>
@@ -3551,19 +3551,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="C16" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>583</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>584</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -3574,19 +3574,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="52" t="s">
         <v>592</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>594</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>595</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -3682,10 +3682,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y1" t="s">
         <v>540</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>541</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -3697,25 +3697,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>547</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>548</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7999,10 +7999,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y1" t="s">
         <v>540</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>541</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -8014,25 +8014,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>547</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>548</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -8113,7 +8113,7 @@
         <v>234</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8197,7 +8197,7 @@
         <v>234</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8281,7 +8281,7 @@
         <v>234</v>
       </c>
       <c r="AL4" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8365,7 +8365,7 @@
         <v>234</v>
       </c>
       <c r="AL5" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8437,7 +8437,7 @@
         <v>234</v>
       </c>
       <c r="AL6" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>72</v>

--- a/Excels/TZ.xlsx
+++ b/Excels/TZ.xlsx
@@ -1452,9 +1452,6 @@
     <t>NFTR</t>
   </si>
   <si>
-    <t>cml5YUAwOTgz</t>
-  </si>
-  <si>
     <t>Advisor Supervisor</t>
   </si>
   <si>
@@ -1491,9 +1488,6 @@
     <t>020920000011</t>
   </si>
   <si>
-    <t>UmFzbWFsYWlAMDk</t>
-  </si>
-  <si>
     <t>Call Drop</t>
   </si>
   <si>
@@ -1828,6 +1822,12 @@
   </si>
   <si>
     <t>Tm90ZXBhZEAxMjM</t>
+  </si>
+  <si>
+    <t>VGFyZ2V0QDAz</t>
+  </si>
+  <si>
+    <t>Uml5YUAyMDIw</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2186,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2485,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2546,7 @@
         <v>23103239</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="C2" t="s">
         <v>466</v>
@@ -2555,7 +2555,7 @@
         <v>787298782</v>
       </c>
       <c r="O2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2563,7 +2563,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
         <v>467</v>
@@ -2577,7 +2577,7 @@
         <v>23101480</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>595</v>
       </c>
       <c r="C4" t="s">
         <v>468</v>
@@ -2591,7 +2591,7 @@
         <v>23103239</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="C5" t="s">
         <v>469</v>
@@ -2700,49 +2700,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>472</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -2770,19 +2770,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -2818,72 +2818,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>528</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>529</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>532</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>536</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>537</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -2911,36 +2911,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -2968,42 +2968,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>513</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>57</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -3175,10 +3175,10 @@
         <v>24</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>433</v>
@@ -3236,7 +3236,7 @@
         <v>442</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>439</v>
@@ -3282,7 +3282,7 @@
         <v>450</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -3385,22 +3385,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="E10" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>589</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="F10" s="39" t="s">
         <v>550</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>551</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>552</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -3410,22 +3410,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="D11" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>556</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>558</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -3435,28 +3435,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="E12" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>563</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>564</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>565</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>566</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3464,19 +3464,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>568</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>570</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>439</v>
@@ -3499,22 +3499,22 @@
         <v>443</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>436</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>463</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>450</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>26</v>
@@ -3534,13 +3534,13 @@
         <v>440</v>
       </c>
       <c r="E15" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>577</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>578</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>579</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>443</v>
@@ -3551,19 +3551,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>582</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>583</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -3574,19 +3574,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>590</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>592</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>594</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -3682,10 +3682,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -3697,25 +3697,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>545</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>547</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7999,10 +7999,10 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -8014,25 +8014,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>545</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>547</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -8113,7 +8113,7 @@
         <v>234</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8197,7 +8197,7 @@
         <v>234</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8281,7 +8281,7 @@
         <v>234</v>
       </c>
       <c r="AL4" s="39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8365,7 +8365,7 @@
         <v>234</v>
       </c>
       <c r="AL5" s="39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -8437,7 +8437,7 @@
         <v>234</v>
       </c>
       <c r="AL6" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>72</v>

--- a/Excels/TZ.xlsx
+++ b/Excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="600">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>Social media</t>
-  </si>
-  <si>
-    <t>Prank caller</t>
   </si>
   <si>
     <t>ENQ101</t>
@@ -1828,6 +1825,21 @@
   </si>
   <si>
     <t>Uml5YUAyMDIw</t>
+  </si>
+  <si>
+    <t>200121000214</t>
+  </si>
+  <si>
+    <t>200121000215</t>
+  </si>
+  <si>
+    <t>200121000216</t>
+  </si>
+  <si>
+    <t>200121000217</t>
+  </si>
+  <si>
+    <t>200121000218</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2198,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2546,16 +2558,16 @@
         <v>23103239</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D2">
         <v>787298782</v>
       </c>
       <c r="O2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2563,10 +2575,10 @@
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D3">
         <v>787298771</v>
@@ -2577,10 +2589,10 @@
         <v>23101480</v>
       </c>
       <c r="B4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D4">
         <v>787298782</v>
@@ -2591,10 +2603,10 @@
         <v>23103239</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D5">
         <v>787298771</v>
@@ -2700,49 +2712,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>471</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -2760,29 +2772,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -2800,90 +2812,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="12" style="49" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="49" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" style="49" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" style="49" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" style="49" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="49" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="49" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5703125" style="49" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>527</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>535</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -2901,46 +2913,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2959,51 +2971,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="47" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="47"/>
-    <col min="3" max="3" width="15.85546875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="47" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="22" style="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="47" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="47" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="47" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>512</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -3024,7 +3036,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>57</v>
@@ -3045,7 +3057,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -3090,32 +3102,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3133,17 +3145,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,30 +3187,30 @@
         <v>24</v>
       </c>
       <c r="J1" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>582</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="39" t="s">
         <v>435</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>436</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -3208,22 +3220,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>440</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>441</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
@@ -3233,22 +3245,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>444</v>
-      </c>
       <c r="F4" s="39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -3258,50 +3270,50 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="G5" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="H5" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>450</v>
-      </c>
       <c r="I5" s="39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>452</v>
-      </c>
       <c r="E6" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -3312,19 +3324,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>454</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -3335,22 +3347,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>456</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>457</v>
-      </c>
       <c r="F8" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
@@ -3360,22 +3372,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>458</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="D9" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="E9" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="F9" s="39" t="s">
         <v>462</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>463</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
@@ -3385,22 +3397,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>547</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="E10" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="F10" s="39" t="s">
         <v>549</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>550</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -3410,22 +3422,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>555</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>556</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -3435,28 +3447,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="C12" s="39" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E12" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>563</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>564</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3464,19 +3476,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" s="39" t="s">
+      <c r="D13" s="39" t="s">
         <v>566</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="E13" s="39" t="s">
         <v>567</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>568</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -3487,63 +3499,63 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>569</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>443</v>
-      </c>
-      <c r="E14" s="53" t="s">
+      <c r="F14" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>570</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="G14" s="52" t="s">
+      <c r="H14" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="I14" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="J14" s="52" t="s">
         <v>572</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>573</v>
-      </c>
       <c r="K14" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>440</v>
-      </c>
       <c r="E15" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="G15" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>577</v>
-      </c>
       <c r="H15" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
@@ -3551,19 +3563,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="C16" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>581</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -3574,19 +3586,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>588</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="52" t="s">
         <v>589</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>590</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>591</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>592</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -3673,19 +3685,19 @@
         <v>32</v>
       </c>
       <c r="U1" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="V1" s="50" t="s">
         <v>464</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>465</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y1" t="s">
         <v>537</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>538</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -3697,25 +3709,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>544</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>545</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -3729,43 +3741,43 @@
     </row>
     <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>242</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G2" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H2" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>404</v>
-      </c>
       <c r="M2" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N2" s="27" t="b">
         <v>1</v>
@@ -3777,7 +3789,7 @@
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
       <c r="AA2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="13">
         <v>24</v>
@@ -3787,42 +3799,42 @@
         <v>24</v>
       </c>
       <c r="AJ2" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>244</v>
-      </c>
       <c r="F3" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K3" s="27" t="b">
         <v>1</v>
@@ -3837,7 +3849,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
       <c r="AA3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="13">
         <v>12</v>
@@ -3847,75 +3859,75 @@
         <v>12</v>
       </c>
       <c r="AJ3" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D4" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="F4" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="M4" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="27" t="s">
+      <c r="P4" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="S4" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T4" s="27" t="b">
         <v>1</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB4" s="13">
         <v>48</v>
@@ -3925,75 +3937,75 @@
         <v>48</v>
       </c>
       <c r="AJ4" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK4" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D5" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>248</v>
-      </c>
       <c r="F5" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H5" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="M5" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N5" s="27" t="b">
         <v>1</v>
       </c>
       <c r="O5" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="P5" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="S5" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T5" s="27" t="b">
         <v>1</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB5" s="13">
         <v>48</v>
@@ -4003,69 +4015,69 @@
         <v>48</v>
       </c>
       <c r="AJ5" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK5" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D6" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>250</v>
-      </c>
       <c r="F6" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H6" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="M6" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N6" s="27" t="b">
         <v>1</v>
       </c>
       <c r="O6" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="P6" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="S6" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T6" s="27" t="b">
         <v>1</v>
@@ -4081,67 +4093,67 @@
     </row>
     <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D7" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="F7" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G7" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H7" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="27" t="s">
+      <c r="M7" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>411</v>
-      </c>
       <c r="P7" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="27" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T7" s="27" t="b">
         <v>1</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="13">
         <v>48</v>
@@ -4151,51 +4163,51 @@
         <v>48</v>
       </c>
       <c r="AJ7" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK7" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D8" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>254</v>
-      </c>
       <c r="F8" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G8" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H8" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="J8" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K8" s="27" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N8" s="27" t="b">
         <v>1</v>
@@ -4207,7 +4219,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
       <c r="AA8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB8" s="13">
         <v>24</v>
@@ -4217,33 +4229,33 @@
         <v>24</v>
       </c>
       <c r="AJ8" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK8" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D9" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="F9" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
@@ -4255,10 +4267,10 @@
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q9" s="27" t="b">
         <v>1</v>
@@ -4267,7 +4279,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
       <c r="AA9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB9" s="13">
         <v>48</v>
@@ -4277,27 +4289,27 @@
         <v>48</v>
       </c>
       <c r="AJ9" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK9" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D10" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
@@ -4315,7 +4327,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="AA10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB10" s="13">
         <v>48</v>
@@ -4325,27 +4337,27 @@
         <v>48</v>
       </c>
       <c r="AJ10" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK10" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D11" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>260</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
@@ -4363,7 +4375,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="AA11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB11" s="13">
         <v>48</v>
@@ -4373,60 +4385,60 @@
         <v>48</v>
       </c>
       <c r="AJ11" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK11" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="E12" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="F12" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>414</v>
-      </c>
       <c r="M12" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N12" s="27" t="b">
         <v>1</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q12" s="27" t="b">
         <v>1</v>
@@ -4435,7 +4447,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="AA12" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB12" s="13">
         <v>24</v>
@@ -4445,51 +4457,51 @@
         <v>24</v>
       </c>
       <c r="AJ12" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK12" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>265</v>
-      </c>
       <c r="F13" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K13" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>414</v>
-      </c>
       <c r="M13" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N13" s="27" t="b">
         <v>1</v>
@@ -4501,7 +4513,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
       <c r="AA13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB13" s="13">
         <v>24</v>
@@ -4511,60 +4523,60 @@
         <v>24</v>
       </c>
       <c r="AJ13" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK13" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="F14" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K14" s="27" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N14" s="27" t="b">
         <v>1</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="27" t="b">
         <v>1</v>
@@ -4573,7 +4585,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="AA14" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB14" s="13">
         <v>24</v>
@@ -4583,60 +4595,60 @@
         <v>24</v>
       </c>
       <c r="AJ14" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK14" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E15" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="F15" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K15" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>414</v>
-      </c>
       <c r="M15" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N15" s="27" t="b">
         <v>1</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q15" s="27" t="b">
         <v>1</v>
@@ -4645,7 +4657,7 @@
       <c r="S15" s="33"/>
       <c r="T15" s="27"/>
       <c r="AA15" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB15" s="13">
         <v>24</v>
@@ -4655,51 +4667,51 @@
         <v>24</v>
       </c>
       <c r="AJ15" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK15" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D16" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>272</v>
-      </c>
       <c r="F16" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I16" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J16" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K16" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>414</v>
-      </c>
       <c r="M16" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N16" s="27" t="b">
         <v>1</v>
@@ -4711,7 +4723,7 @@
       <c r="S16" s="33"/>
       <c r="T16" s="27"/>
       <c r="AA16" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB16" s="13">
         <v>24</v>
@@ -4721,51 +4733,51 @@
         <v>24</v>
       </c>
       <c r="AJ16" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK16" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="F17" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H17" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K17" s="27" t="b">
         <v>1</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N17" s="27" t="b">
         <v>1</v>
@@ -4777,7 +4789,7 @@
       <c r="S17" s="33"/>
       <c r="T17" s="27"/>
       <c r="AA17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB17" s="13">
         <v>24</v>
@@ -4787,75 +4799,75 @@
         <v>24</v>
       </c>
       <c r="AJ17" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK17" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="E18" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="F18" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H18" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I18" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K18" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K18" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="35" t="s">
+      <c r="M18" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N18" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="M18" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N18" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="35" t="s">
+      <c r="P18" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q18" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="P18" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q18" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="35" t="s">
-        <v>418</v>
-      </c>
       <c r="S18" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T18" s="27" t="b">
         <v>1</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB18" s="13">
         <v>48</v>
@@ -4865,75 +4877,75 @@
         <v>48</v>
       </c>
       <c r="AJ18" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK18" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>279</v>
-      </c>
       <c r="F19" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H19" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K19" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K19" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="35" t="s">
+      <c r="M19" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N19" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="M19" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N19" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="35" t="s">
+      <c r="P19" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q19" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="P19" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q19" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="35" t="s">
-        <v>418</v>
-      </c>
       <c r="S19" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T19" s="27" t="b">
         <v>1</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB19" s="13">
         <v>48</v>
@@ -4943,51 +4955,51 @@
         <v>48</v>
       </c>
       <c r="AJ19" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK19" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>282</v>
-      </c>
       <c r="F20" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H20" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K20" s="27" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N20" s="27" t="b">
         <v>1</v>
@@ -4999,7 +5011,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="AA20" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB20" s="13">
         <v>48</v>
@@ -5009,51 +5021,51 @@
         <v>48</v>
       </c>
       <c r="AJ20" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK20" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>284</v>
-      </c>
       <c r="F21" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H21" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K21" s="27" t="b">
         <v>1</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M21" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N21" s="27" t="b">
         <v>1</v>
@@ -5065,7 +5077,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="AA21" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB21" s="13">
         <v>48</v>
@@ -5075,42 +5087,42 @@
         <v>48</v>
       </c>
       <c r="AJ21" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK21" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>286</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H22" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K22" s="27" t="b">
         <v>1</v>
@@ -5119,10 +5131,10 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="27" t="b">
         <v>1</v>
@@ -5131,7 +5143,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="AA22" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB22" s="13">
         <v>48</v>
@@ -5141,27 +5153,27 @@
         <v>48</v>
       </c>
       <c r="AJ22" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK22" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
@@ -5179,7 +5191,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="AA23" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB23" s="13">
         <v>24</v>
@@ -5189,27 +5201,27 @@
         <v>24</v>
       </c>
       <c r="AJ23" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK23" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -5227,7 +5239,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="AA24" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB24" s="13">
         <v>24</v>
@@ -5237,27 +5249,27 @@
         <v>24</v>
       </c>
       <c r="AJ24" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK24" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>293</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="28"/>
@@ -5275,7 +5287,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
       <c r="AA25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB25" s="13">
         <v>24</v>
@@ -5285,33 +5297,33 @@
         <v>24</v>
       </c>
       <c r="AJ25" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK25" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D26" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>295</v>
-      </c>
       <c r="F26" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H26" s="29" t="b">
         <v>1</v>
@@ -5323,10 +5335,10 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
       <c r="O26" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="27" t="b">
         <v>1</v>
@@ -5335,7 +5347,7 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="AA26" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB26" s="13">
         <v>48</v>
@@ -5345,51 +5357,51 @@
         <v>48</v>
       </c>
       <c r="AJ26" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK26" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>298</v>
-      </c>
       <c r="F27" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H27" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K27" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K27" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="M27" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N27" s="27" t="b">
         <v>1</v>
@@ -5401,7 +5413,7 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="AA27" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB27" s="13">
         <v>48</v>
@@ -5411,51 +5423,51 @@
         <v>48</v>
       </c>
       <c r="AJ27" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK27" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>300</v>
-      </c>
       <c r="F28" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H28" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="J28" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K28" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>426</v>
-      </c>
       <c r="M28" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N28" s="27" t="b">
         <v>1</v>
@@ -5467,7 +5479,7 @@
       <c r="S28" s="36"/>
       <c r="T28" s="36"/>
       <c r="AA28" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB28" s="13">
         <v>12</v>
@@ -5477,51 +5489,51 @@
         <v>12</v>
       </c>
       <c r="AJ28" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK28" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="E29" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>303</v>
-      </c>
       <c r="F29" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H29" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="J29" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K29" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>428</v>
-      </c>
       <c r="M29" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N29" s="27" t="b">
         <v>1</v>
@@ -5533,7 +5545,7 @@
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
       <c r="AA29" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB29" s="13">
         <v>24</v>
@@ -5543,27 +5555,27 @@
         <v>24</v>
       </c>
       <c r="AJ29" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK29" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>304</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>305</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -5591,19 +5603,19 @@
     </row>
     <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -5631,19 +5643,19 @@
     </row>
     <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="26" t="s">
+      <c r="E32" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>310</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -5667,27 +5679,27 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK32" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
@@ -5711,27 +5723,27 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK33" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
@@ -5755,27 +5767,27 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK34" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -5799,27 +5811,27 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK35" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -5843,27 +5855,27 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK36" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>319</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>320</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
@@ -5891,19 +5903,19 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="38" t="s">
         <v>321</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>322</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
@@ -5931,19 +5943,19 @@
     </row>
     <row r="39" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="E39" s="32" t="s">
         <v>324</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>325</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
@@ -5971,25 +5983,25 @@
     </row>
     <row r="40" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>327</v>
-      </c>
       <c r="F40" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H40" s="29" t="b">
         <v>1</v>
@@ -6001,10 +6013,10 @@
       <c r="M40" s="33"/>
       <c r="N40" s="33"/>
       <c r="O40" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q40" s="27" t="b">
         <v>1</v>
@@ -6023,52 +6035,52 @@
     </row>
     <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>329</v>
-      </c>
       <c r="F41" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G41" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H41" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K41" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N41" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H41" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="J41" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K41" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="M41" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N41" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="P41" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q41" s="27" t="b">
         <v>1</v>
@@ -6077,7 +6089,7 @@
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="AA41" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB41" s="13">
         <v>24</v>
@@ -6087,51 +6099,51 @@
         <v>24</v>
       </c>
       <c r="AJ41" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK41" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>331</v>
-      </c>
       <c r="F42" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H42" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I42" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K42" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="J42" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K42" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="M42" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N42" s="27" t="b">
         <v>1</v>
@@ -6143,7 +6155,7 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="AA42" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB42" s="13">
         <v>48</v>
@@ -6153,51 +6165,51 @@
         <v>48</v>
       </c>
       <c r="AJ42" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK42" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D43" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>333</v>
-      </c>
       <c r="F43" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H43" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I43" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K43" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="J43" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K43" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="M43" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N43" s="27" t="b">
         <v>1</v>
@@ -6209,7 +6221,7 @@
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="AA43" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB43" s="13">
         <v>48</v>
@@ -6219,60 +6231,60 @@
         <v>48</v>
       </c>
       <c r="AJ43" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK43" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D44" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>335</v>
-      </c>
       <c r="F44" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G44" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H44" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K44" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N44" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H44" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="J44" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K44" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="M44" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N44" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="P44" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q44" s="27" t="b">
         <v>1</v>
@@ -6281,7 +6293,7 @@
       <c r="S44" s="33"/>
       <c r="T44" s="33"/>
       <c r="AA44" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB44" s="13">
         <v>48</v>
@@ -6291,60 +6303,60 @@
         <v>48</v>
       </c>
       <c r="AJ44" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK44" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>337</v>
-      </c>
       <c r="F45" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G45" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H45" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N45" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H45" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="J45" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K45" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="M45" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N45" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="P45" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q45" s="27" t="b">
         <v>1</v>
@@ -6353,7 +6365,7 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="AA45" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB45" s="13">
         <v>48</v>
@@ -6363,60 +6375,60 @@
         <v>48</v>
       </c>
       <c r="AJ45" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK45" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>339</v>
-      </c>
       <c r="F46" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G46" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H46" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N46" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H46" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="J46" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K46" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N46" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="P46" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q46" s="27" t="b">
         <v>1</v>
@@ -6425,7 +6437,7 @@
       <c r="S46" s="33"/>
       <c r="T46" s="33"/>
       <c r="AA46" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB46" s="13">
         <v>48</v>
@@ -6435,60 +6447,60 @@
         <v>48</v>
       </c>
       <c r="AJ46" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK46" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>341</v>
-      </c>
       <c r="F47" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H47" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I47" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="J47" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K47" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="M47" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N47" s="27" t="b">
         <v>1</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q47" s="27" t="b">
         <v>1</v>
@@ -6497,7 +6509,7 @@
       <c r="S47" s="33"/>
       <c r="T47" s="33"/>
       <c r="AA47" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB47" s="13">
         <v>48</v>
@@ -6507,27 +6519,27 @@
         <v>48</v>
       </c>
       <c r="AJ47" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK47" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
@@ -6545,7 +6557,7 @@
       <c r="S48" s="39"/>
       <c r="T48" s="39"/>
       <c r="AA48" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB48" s="13">
         <v>12</v>
@@ -6555,27 +6567,27 @@
         <v>12</v>
       </c>
       <c r="AJ48" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK48" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>344</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>345</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -6593,7 +6605,7 @@
       <c r="S49" s="39"/>
       <c r="T49" s="39"/>
       <c r="AA49" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB49" s="13">
         <v>12</v>
@@ -6603,27 +6615,27 @@
         <v>12</v>
       </c>
       <c r="AJ49" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK49" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D50" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -6641,7 +6653,7 @@
       <c r="S50" s="39"/>
       <c r="T50" s="39"/>
       <c r="AA50" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB50" s="13">
         <v>24</v>
@@ -6651,27 +6663,27 @@
         <v>24</v>
       </c>
       <c r="AJ50" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK50" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -6695,27 +6707,27 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK51" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D52" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -6739,27 +6751,27 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK52" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
@@ -6783,27 +6795,27 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK53" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
@@ -6827,27 +6839,27 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK54" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D55" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>357</v>
       </c>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -6871,27 +6883,27 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK55" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
@@ -6915,27 +6927,27 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK56" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D57" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
@@ -6959,27 +6971,27 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK57" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
@@ -7003,27 +7015,27 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK58" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D59" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>365</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -7047,27 +7059,27 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK59" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D60" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
@@ -7091,27 +7103,27 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK60" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D61" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
@@ -7135,27 +7147,27 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK61" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="E62" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>372</v>
       </c>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
@@ -7173,7 +7185,7 @@
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
       <c r="AA62" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB62" s="13">
         <v>12</v>
@@ -7183,51 +7195,51 @@
         <v>12</v>
       </c>
       <c r="AJ62" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK62" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D63" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>374</v>
-      </c>
       <c r="F63" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H63" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I63" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K63" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="J63" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K63" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>432</v>
-      </c>
       <c r="M63" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N63" s="27" t="b">
         <v>1</v>
@@ -7239,7 +7251,7 @@
       <c r="S63" s="33"/>
       <c r="T63" s="33"/>
       <c r="AA63" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB63" s="13">
         <v>12</v>
@@ -7249,27 +7261,27 @@
         <v>12</v>
       </c>
       <c r="AJ63" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK63" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="E64" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>377</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
@@ -7287,7 +7299,7 @@
       <c r="S64" s="39"/>
       <c r="T64" s="39"/>
       <c r="AA64" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB64" s="13">
         <v>48</v>
@@ -7297,51 +7309,51 @@
         <v>48</v>
       </c>
       <c r="AJ64" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK64" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D65" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>379</v>
-      </c>
       <c r="F65" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H65" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I65" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K65" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="J65" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K65" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>432</v>
-      </c>
       <c r="M65" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N65" s="27" t="b">
         <v>1</v>
@@ -7353,7 +7365,7 @@
       <c r="S65" s="33"/>
       <c r="T65" s="33"/>
       <c r="AA65" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB65" s="13">
         <v>48</v>
@@ -7363,27 +7375,27 @@
         <v>48</v>
       </c>
       <c r="AJ65" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK65" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D66" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>381</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
@@ -7401,7 +7413,7 @@
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
       <c r="AA66" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB66" s="13">
         <v>12</v>
@@ -7411,27 +7423,27 @@
         <v>12</v>
       </c>
       <c r="AJ66" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK66" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D67" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>383</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
@@ -7449,7 +7461,7 @@
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
       <c r="AA67" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB67" s="13">
         <v>12</v>
@@ -7459,27 +7471,27 @@
         <v>12</v>
       </c>
       <c r="AJ67" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK67" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>384</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>385</v>
       </c>
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
@@ -7497,7 +7509,7 @@
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
       <c r="AA68" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB68" s="13">
         <v>12</v>
@@ -7507,27 +7519,27 @@
         <v>12</v>
       </c>
       <c r="AJ68" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK68" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
@@ -7545,7 +7557,7 @@
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
       <c r="AA69" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB69" s="13">
         <v>12</v>
@@ -7555,27 +7567,27 @@
         <v>12</v>
       </c>
       <c r="AJ69" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK69" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
@@ -7593,7 +7605,7 @@
       <c r="S70" s="39"/>
       <c r="T70" s="39"/>
       <c r="AA70" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB70" s="13">
         <v>12</v>
@@ -7603,27 +7615,27 @@
         <v>12</v>
       </c>
       <c r="AJ70" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK70" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>390</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>391</v>
       </c>
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
@@ -7641,7 +7653,7 @@
       <c r="S71" s="39"/>
       <c r="T71" s="39"/>
       <c r="AA71" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB71" s="13">
         <v>12</v>
@@ -7651,27 +7663,27 @@
         <v>12</v>
       </c>
       <c r="AJ71" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK71" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>393</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
@@ -7689,7 +7701,7 @@
       <c r="S72" s="39"/>
       <c r="T72" s="39"/>
       <c r="AA72" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB72" s="13">
         <v>12</v>
@@ -7699,27 +7711,27 @@
         <v>12</v>
       </c>
       <c r="AJ72" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK72" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
@@ -7737,7 +7749,7 @@
       <c r="S73" s="39"/>
       <c r="T73" s="39"/>
       <c r="AA73" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB73" s="13">
         <v>12</v>
@@ -7747,27 +7759,27 @@
         <v>12</v>
       </c>
       <c r="AJ73" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK73" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>396</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>397</v>
       </c>
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
@@ -7785,7 +7797,7 @@
       <c r="S74" s="39"/>
       <c r="T74" s="39"/>
       <c r="AA74" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB74" s="13">
         <v>24</v>
@@ -7795,27 +7807,27 @@
         <v>24</v>
       </c>
       <c r="AJ74" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK74" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>398</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>399</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
@@ -7833,7 +7845,7 @@
       <c r="S75" s="39"/>
       <c r="T75" s="39"/>
       <c r="AA75" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB75" s="13">
         <v>8</v>
@@ -7843,60 +7855,60 @@
         <v>8</v>
       </c>
       <c r="AJ75" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK75" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E76" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F76" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="F76" s="27" t="s">
-        <v>401</v>
-      </c>
       <c r="G76" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H76" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K76" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="M76" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N76" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H76" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="J76" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K76" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="M76" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N76" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="P76" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q76" s="27" t="b">
         <v>1</v>
@@ -7920,7 +7932,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:BG6"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AF4" sqref="AF4"/>
@@ -7928,7 +7940,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
@@ -7990,19 +8002,19 @@
         <v>32</v>
       </c>
       <c r="U1" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="V1" s="50" t="s">
         <v>464</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>465</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y1" t="s">
         <v>537</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>538</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -8014,25 +8026,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>544</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>545</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -8044,45 +8056,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>242</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G2" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H2" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>404</v>
-      </c>
       <c r="M2" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N2" s="27" t="b">
         <v>1</v>
@@ -8097,7 +8109,7 @@
       <c r="V2" s="39"/>
       <c r="W2" s="39"/>
       <c r="AA2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="13">
         <v>24</v>
@@ -8107,72 +8119,75 @@
         <v>24</v>
       </c>
       <c r="AJ2" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="F3" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G3" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H3" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="27" t="s">
+      <c r="M3" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="P3" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T3" s="27" t="b">
         <v>1</v>
@@ -8181,7 +8196,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="39"/>
       <c r="AA3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB3" s="13">
         <v>48</v>
@@ -8191,72 +8206,75 @@
         <v>48</v>
       </c>
       <c r="AJ3" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK3" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D4" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>248</v>
-      </c>
       <c r="F4" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="M4" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N4" s="27" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="S4" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T4" s="27" t="b">
         <v>1</v>
@@ -8265,7 +8283,7 @@
       <c r="V4" s="39"/>
       <c r="W4" s="39"/>
       <c r="AA4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB4" s="13">
         <v>48</v>
@@ -8275,72 +8293,75 @@
         <v>48</v>
       </c>
       <c r="AJ4" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK4" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL4" s="39" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D5" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="F5" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H5" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="M5" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="N5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="K5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="N5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>411</v>
-      </c>
       <c r="P5" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="27" t="b">
         <v>1</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T5" s="27" t="b">
         <v>1</v>
@@ -8349,7 +8370,7 @@
       <c r="V5" s="39"/>
       <c r="W5" s="39"/>
       <c r="AA5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB5" s="13">
         <v>48</v>
@@ -8359,54 +8380,57 @@
         <v>48</v>
       </c>
       <c r="AJ5" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK5" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL5" s="39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>117</v>
-      </c>
       <c r="D6" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>254</v>
-      </c>
       <c r="F6" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H6" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>403</v>
-      </c>
       <c r="J6" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K6" s="27" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N6" s="27" t="b">
         <v>1</v>
@@ -8421,7 +8445,7 @@
       <c r="V6" s="39"/>
       <c r="W6" s="39"/>
       <c r="AA6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB6" s="13">
         <v>24</v>
@@ -8431,13 +8455,16 @@
         <v>24</v>
       </c>
       <c r="AJ6" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK6" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL6" s="39" t="s">
-        <v>481</v>
+        <v>480</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -8485,1107 +8512,1107 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D13" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D15" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D18" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D19" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D41" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D45" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>186</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D47" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="D48" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="D49" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>207</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>209</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>214</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>216</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E60" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>223</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D64" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="E66" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -9625,104 +9652,104 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9760,10 +9787,10 @@
         <v>63</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -9771,10 +9798,10 @@
         <v>64</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -9782,10 +9809,10 @@
         <v>65</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -9793,130 +9820,130 @@
         <v>66</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -9928,8 +9955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9956,13 +9983,13 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="D2" s="39">
         <v>787298771</v>
@@ -9970,13 +9997,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="39">
         <v>787298771</v>
@@ -9984,13 +10011,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="D4" s="39">
         <v>787298771</v>

--- a/Excels/TZ.xlsx
+++ b/Excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="604">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1818,15 +1818,6 @@
     <t>Next Reset Date</t>
   </si>
   <si>
-    <t>Tm90ZXBhZEAxMjM</t>
-  </si>
-  <si>
-    <t>VGFyZ2V0QDAz</t>
-  </si>
-  <si>
-    <t>Uml5YUAyMDIw</t>
-  </si>
-  <si>
     <t>200121000214</t>
   </si>
   <si>
@@ -1840,13 +1831,34 @@
   </si>
   <si>
     <t>200121000218</t>
+  </si>
+  <si>
+    <t>QWFpcnRlbEAwOTE5</t>
+  </si>
+  <si>
+    <t>RGVhdGhub3RlQDEyMw</t>
+  </si>
+  <si>
+    <t>TWFyQDIwMjE</t>
+  </si>
+  <si>
+    <t>Prod Customer Number</t>
+  </si>
+  <si>
+    <t>Prod SIM Number</t>
+  </si>
+  <si>
+    <t>787298733</t>
+  </si>
+  <si>
+    <t>892550506062552000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1939,6 +1951,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2078,7 +2096,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2157,6 +2175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2494,122 +2513,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>23103239</v>
-      </c>
-      <c r="B2" t="s">
-        <v>593</v>
+      <c r="P1" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>2388008</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>597</v>
       </c>
       <c r="C2" t="s">
         <v>465</v>
       </c>
-      <c r="D2">
-        <v>787298782</v>
+      <c r="D2" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>603</v>
       </c>
       <c r="O2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="P2" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>2394650</v>
       </c>
-      <c r="B3" t="s">
-        <v>592</v>
+      <c r="B3" s="39" t="s">
+        <v>598</v>
       </c>
       <c r="C3" t="s">
         <v>466</v>
       </c>
       <c r="D3">
-        <v>787298771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>23101480</v>
-      </c>
-      <c r="B4" t="s">
-        <v>594</v>
+        <v>787298698</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>2390932</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>599</v>
       </c>
       <c r="C4" t="s">
         <v>467</v>
       </c>
-      <c r="D4">
-        <v>787298782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>23103239</v>
-      </c>
-      <c r="B5" t="s">
-        <v>593</v>
+      <c r="D4" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>2388008</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>597</v>
       </c>
       <c r="C5" t="s">
         <v>468</v>
       </c>
       <c r="D5">
-        <v>787298771</v>
+        <v>787298698</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8128,7 +8174,7 @@
         <v>482</v>
       </c>
       <c r="BG2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8215,7 +8261,7 @@
         <v>483</v>
       </c>
       <c r="BG3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8302,7 +8348,7 @@
         <v>484</v>
       </c>
       <c r="BG4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8389,7 +8435,7 @@
         <v>485</v>
       </c>
       <c r="BG5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8464,7 +8510,7 @@
         <v>480</v>
       </c>
       <c r="BG6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -9955,7 +10001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Excels/TZ.xlsx
+++ b/Excels/TZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="616">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1361,19 +1361,12 @@
     <t>Start Balance</t>
   </si>
   <si>
-    <t>End Balance</t>
-  </si>
-  <si>
     <t>Recharge History</t>
   </si>
   <si>
     <t>Bundle Name</t>
   </si>
   <si>
-    <t>Benefit
-Voice|Data|SMS</t>
-  </si>
-  <si>
     <t>Bundle Subscription History</t>
   </si>
   <si>
@@ -1852,13 +1845,89 @@
   </si>
   <si>
     <t>892550506062552000</t>
+  </si>
+  <si>
+    <t>Service Profile</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>HLR Code</t>
+  </si>
+  <si>
+    <t>More Airtel Money History</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Quick Actions</t>
+  </si>
+  <si>
+    <t>Amount
+(TZS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Service Charge
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF747474"/>
+        <rFont val="Tondo-regular"/>
+      </rPr>
+      <t>(TZS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pre balance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF747474"/>
+        <rFont val="Tondo-regular"/>
+      </rPr>
+      <t>(TZS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Post balance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF747474"/>
+        <rFont val="Tondo-regular"/>
+      </rPr>
+      <t>(TZS)</t>
+    </r>
+  </si>
+  <si>
+    <t>Benefit Voice|Data|SMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1957,6 +2026,11 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF747474"/>
+      <name val="Tondo-regular"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2096,7 +2170,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2176,6 +2250,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2515,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2575,10 +2652,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
@@ -2586,25 +2663,25 @@
         <v>2388008</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P2" s="54" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q2" s="54" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2612,10 +2689,10 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D3">
         <v>787298698</v>
@@ -2629,16 +2706,16 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2646,10 +2723,10 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D5">
         <v>787298698</v>
@@ -2758,49 +2835,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -2828,19 +2905,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -2876,72 +2953,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>525</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>526</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>530</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>533</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>534</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -2969,36 +3046,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3026,42 +3103,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>510</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>57</v>
@@ -3082,7 +3159,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>57</v>
@@ -3103,7 +3180,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>57</v>
@@ -3133,7 +3210,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,10 +3260,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,10 +3310,10 @@
         <v>24</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3244,7 +3321,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>432</v>
@@ -3281,7 +3358,7 @@
         <v>439</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>440</v>
+        <v>573</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
@@ -3291,19 +3368,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>615</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>435</v>
@@ -3316,47 +3393,47 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>444</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>446</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>435</v>
       </c>
       <c r="F5" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="I5" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>437</v>
@@ -3370,16 +3447,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>437</v>
@@ -3393,19 +3470,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>437</v>
@@ -3418,22 +3495,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="D9" s="39" t="s">
         <v>458</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="E9" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="F9" s="39" t="s">
         <v>460</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>462</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
@@ -3443,22 +3520,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="E10" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>586</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="F10" s="39" t="s">
         <v>547</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>549</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -3468,22 +3545,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="D11" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>553</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>554</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>555</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -3493,28 +3570,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>556</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="E12" s="39" t="s">
         <v>558</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>561</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>562</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>563</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3522,19 +3599,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>402</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>565</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>567</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -3545,42 +3622,42 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>438</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>435</v>
       </c>
       <c r="G14" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J14" s="52" t="s">
         <v>570</v>
       </c>
-      <c r="H14" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>462</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>572</v>
-      </c>
       <c r="K14" s="52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>26</v>
@@ -3592,16 +3669,16 @@
         <v>439</v>
       </c>
       <c r="E15" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="F15" s="39" t="s">
-        <v>575</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>576</v>
-      </c>
       <c r="H15" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
@@ -3609,19 +3686,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="D16" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>580</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -3630,21 +3707,21 @@
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>587</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>588</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>589</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>590</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>591</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -3653,9 +3730,74 @@
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>605</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>611</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>613</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>614</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>610</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3731,19 +3873,19 @@
         <v>32</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Y1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -3755,25 +3897,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>542</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>544</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -8048,19 +8190,19 @@
         <v>32</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Y1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -8072,25 +8214,25 @@
         <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="51" t="s">
         <v>542</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>544</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -8171,10 +8313,10 @@
         <v>233</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="BG2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8258,10 +8400,10 @@
         <v>233</v>
       </c>
       <c r="AL3" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="BG3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8345,10 +8487,10 @@
         <v>233</v>
       </c>
       <c r="AL4" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BG4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8432,10 +8574,10 @@
         <v>233</v>
       </c>
       <c r="AL5" s="39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BG5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
@@ -8507,10 +8649,10 @@
         <v>233</v>
       </c>
       <c r="AL6" s="39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BG6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -10043,7 +10185,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>71</v>
